--- a/01-Data/00-Original.xlsx
+++ b/01-Data/00-Original.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://susystem-my.sharepoint.com/personal/ama_amponsah_sus_edu/Documents/01-Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://susystem-my.sharepoint.com/personal/ama_amponsah_sus_edu/Documents/01-Research/01-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9A5B6BAC-9E32-4D96-83E0-9B361E279FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9B96E6-B959-4435-A389-8E662640F356}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9A5B6BAC-9E32-4D96-83E0-9B361E279FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11932DBE-1ECD-4A97-92F1-4FA426FEBE29}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1978,6 +1978,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2280,9 +2284,9 @@
   <dimension ref="A1:M261"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3693,6 +3697,9 @@
       <c r="G51" s="2">
         <v>9.0709999999999997</v>
       </c>
+      <c r="H51" s="2">
+        <v>18.11</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
